--- a/src/main/resources/testExcel.xlsx
+++ b/src/main/resources/testExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\星球项目\yupao-backend\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\SpringBoot\BoPao\bopao-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70002CE3-12FF-430B-88E7-CF1395314C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CF27F-9B4D-4A3A-BD53-51D1FFDCB6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1509" yWindow="1509" windowWidth="24685" windowHeight="13054" xr2:uid="{011CF2F0-5D78-4EEB-A1D8-55F1284DBF6E}"/>
+    <workbookView xWindow="870" yWindow="1500" windowWidth="18000" windowHeight="10522" xr2:uid="{011CF2F0-5D78-4EEB-A1D8-55F1284DBF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,10 +41,11 @@
     <t>1</t>
   </si>
   <si>
-    <t>鱼皮</t>
+    <t>827.6</t>
   </si>
   <si>
-    <t>827.6</t>
+    <t>bobo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,12 +426,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="16.149999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,53 +442,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
